--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2029219.640729296</v>
+        <v>2026721.908805609</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554858</v>
+        <v>10955577.07554859</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>37.16417278109564</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>315.1636514716172</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.958190538687</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>154.9260532011784</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>352.3198639145299</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>91.10500811295988</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.4149600371268</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2609479597986</v>
+        <v>19.6015054687438</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>315.1636514716172</v>
       </c>
       <c r="I5" t="n">
-        <v>104.9527168434865</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0.7530123241024569</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.9260532011784</v>
       </c>
       <c r="T5" t="n">
         <v>212.7043385723319</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>3.398827592185468</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>12.93465110712143</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.4149600371268</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>197.5339758908212</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47.48536395958274</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1184,7 +1184,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>179.6683693173732</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>98.72860659578222</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>6.980384243200308</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>79.05856366754296</v>
       </c>
       <c r="G13" t="n">
-        <v>45.66054613217645</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826188888</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>112.5284434523311</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>59.45282559760268</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>238.7475569885536</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184548</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531716</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.5212963318317</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358384</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703248</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611595375</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016433</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057063</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609172</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>795.1106014323606</v>
+        <v>952.8099583210299</v>
       </c>
       <c r="C2" t="n">
-        <v>795.1106014323606</v>
+        <v>915.2703898552767</v>
       </c>
       <c r="D2" t="n">
-        <v>795.1106014323606</v>
+        <v>915.2703898552767</v>
       </c>
       <c r="E2" t="n">
-        <v>795.1106014323606</v>
+        <v>915.2703898552767</v>
       </c>
       <c r="F2" t="n">
-        <v>788.1651006831571</v>
+        <v>908.3248891060732</v>
       </c>
       <c r="G2" t="n">
-        <v>371.0652102930875</v>
+        <v>491.2249987160036</v>
       </c>
       <c r="H2" t="n">
-        <v>52.71808759448422</v>
+        <v>172.8778760174004</v>
       </c>
       <c r="I2" t="n">
         <v>52.71808759448422</v>
@@ -4331,22 +4331,22 @@
         <v>72.94508437002398</v>
       </c>
       <c r="K2" t="n">
-        <v>471.9784001808838</v>
+        <v>474.9025859199828</v>
       </c>
       <c r="L2" t="n">
-        <v>609.4342495045171</v>
+        <v>1025.843037648562</v>
       </c>
       <c r="M2" t="n">
-        <v>794.0498042278888</v>
+        <v>1655.476990529838</v>
       </c>
       <c r="N2" t="n">
-        <v>1419.239895183002</v>
+        <v>1948.012457026075</v>
       </c>
       <c r="O2" t="n">
-        <v>1964.401531937497</v>
+        <v>2493.17409378057</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.009993239693</v>
+        <v>2602.201833992999</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.904379724211</v>
@@ -4358,22 +4358,22 @@
         <v>2478.652798385543</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.652798385543</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.960126440574</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.897239097003</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="W2" t="n">
-        <v>1541.128583826889</v>
+        <v>1326.27571658211</v>
       </c>
       <c r="X2" t="n">
-        <v>1185.249933408172</v>
+        <v>952.8099583210299</v>
       </c>
       <c r="Y2" t="n">
-        <v>795.1106014323606</v>
+        <v>952.8099583210299</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120973</v>
+        <v>966.4318812120978</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309703</v>
+        <v>791.9788519309708</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697192</v>
+        <v>643.0444422697196</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642636</v>
+        <v>483.8069872642641</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911487</v>
+        <v>337.2724292911492</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640335</v>
+        <v>199.8245529640339</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815741</v>
+        <v>98.84600463815764</v>
       </c>
       <c r="I3" t="n">
         <v>52.71808759448422</v>
       </c>
       <c r="J3" t="n">
-        <v>52.71808759448422</v>
+        <v>170.7774263352076</v>
       </c>
       <c r="K3" t="n">
-        <v>381.1211448320004</v>
+        <v>499.1804835727238</v>
       </c>
       <c r="L3" t="n">
-        <v>884.1039790291106</v>
+        <v>1002.163317769834</v>
       </c>
       <c r="M3" t="n">
-        <v>1523.040444009828</v>
+        <v>1180.051769638051</v>
       </c>
       <c r="N3" t="n">
-        <v>1720.045718791135</v>
+        <v>1435.32098308577</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.222737149934</v>
+        <v>1983.246222291443</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877467</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.904379724211</v>
@@ -4437,7 +4437,7 @@
         <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880795</v>
+        <v>2267.787695880796</v>
       </c>
       <c r="U3" t="n">
         <v>2039.648482162597</v>
@@ -4446,13 +4446,13 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202652</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.407516997119</v>
+        <v>1342.40751699712</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232165</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>758.5992117351918</v>
+        <v>207.021021782959</v>
       </c>
       <c r="C4" t="n">
-        <v>589.6630288072849</v>
+        <v>207.021021782959</v>
       </c>
       <c r="D4" t="n">
-        <v>439.5463893949492</v>
+        <v>207.021021782959</v>
       </c>
       <c r="E4" t="n">
-        <v>291.6332958125561</v>
+        <v>207.021021782959</v>
       </c>
       <c r="F4" t="n">
-        <v>144.7433483146457</v>
+        <v>207.021021782959</v>
       </c>
       <c r="G4" t="n">
-        <v>144.7433483146457</v>
+        <v>207.021021782959</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7433483146457</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I4" t="n">
         <v>52.71808759448422</v>
@@ -4510,28 +4510,28 @@
         <v>1047.751684421857</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.751684421857</v>
+        <v>917.0295025661735</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.751684421857</v>
+        <v>709.4945613603418</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.751684421857</v>
+        <v>709.4945613603418</v>
       </c>
       <c r="U4" t="n">
-        <v>758.5992117351918</v>
+        <v>689.6950608868632</v>
       </c>
       <c r="V4" t="n">
-        <v>758.5992117351918</v>
+        <v>435.0105726809763</v>
       </c>
       <c r="W4" t="n">
-        <v>758.5992117351918</v>
+        <v>435.0105726809763</v>
       </c>
       <c r="X4" t="n">
-        <v>758.5992117351918</v>
+        <v>207.021021782959</v>
       </c>
       <c r="Y4" t="n">
-        <v>758.5992117351918</v>
+        <v>207.021021782959</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1270.085963669223</v>
+        <v>1539.164552637355</v>
       </c>
       <c r="C5" t="n">
-        <v>901.1234467288116</v>
+        <v>1539.164552637355</v>
       </c>
       <c r="D5" t="n">
-        <v>901.1234467288116</v>
+        <v>1180.898854030605</v>
       </c>
       <c r="E5" t="n">
-        <v>901.1234467288116</v>
+        <v>795.1106014323606</v>
       </c>
       <c r="F5" t="n">
-        <v>490.137541939204</v>
+        <v>384.124696642753</v>
       </c>
       <c r="G5" t="n">
-        <v>477.0780555895385</v>
+        <v>371.0652102930875</v>
       </c>
       <c r="H5" t="n">
-        <v>158.7309328909353</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I5" t="n">
         <v>52.71808759448422</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002398</v>
+        <v>240.350733390377</v>
       </c>
       <c r="K5" t="n">
-        <v>474.9025859199828</v>
+        <v>459.9334571908439</v>
       </c>
       <c r="L5" t="n">
-        <v>1025.843037648562</v>
+        <v>597.3893065144772</v>
       </c>
       <c r="M5" t="n">
-        <v>1655.476990529838</v>
+        <v>1227.023259395753</v>
       </c>
       <c r="N5" t="n">
-        <v>1847.693626317087</v>
+        <v>1419.239895183002</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.593372690802</v>
+        <v>1964.401531937497</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992999</v>
+        <v>2392.009993239693</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.904379724211</v>
@@ -4592,25 +4592,25 @@
         <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.143761215016</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T5" t="n">
-        <v>2420.290893970237</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U5" t="n">
-        <v>2420.290893970237</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="V5" t="n">
-        <v>2420.290893970237</v>
+        <v>1932.737043797193</v>
       </c>
       <c r="W5" t="n">
-        <v>2420.290893970237</v>
+        <v>1932.737043797193</v>
       </c>
       <c r="X5" t="n">
-        <v>2046.825135709157</v>
+        <v>1929.303884613167</v>
       </c>
       <c r="Y5" t="n">
-        <v>1656.685803733345</v>
+        <v>1539.164552637355</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120983</v>
+        <v>966.4318812120978</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309714</v>
+        <v>791.9788519309708</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697201</v>
+        <v>643.0444422697196</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642646</v>
+        <v>483.8069872642641</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911496</v>
+        <v>337.2724292911492</v>
       </c>
       <c r="G6" t="n">
-        <v>199.824552964034</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815764</v>
+        <v>98.84600463815741</v>
       </c>
       <c r="I6" t="n">
         <v>52.71808759448422</v>
@@ -4647,13 +4647,13 @@
         <v>52.71808759448422</v>
       </c>
       <c r="K6" t="n">
-        <v>381.1211448320004</v>
+        <v>119.3005601895475</v>
       </c>
       <c r="L6" t="n">
-        <v>807.3557581822357</v>
+        <v>622.2833943866577</v>
       </c>
       <c r="M6" t="n">
-        <v>1446.292223162953</v>
+        <v>990.9111639625185</v>
       </c>
       <c r="N6" t="n">
         <v>1643.297497944261</v>
@@ -4680,7 +4680,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930855</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.5739510150303</v>
+        <v>215.9000311554275</v>
       </c>
       <c r="C7" t="n">
-        <v>497.6377680871234</v>
+        <v>215.9000311554275</v>
       </c>
       <c r="D7" t="n">
-        <v>347.5211286747877</v>
+        <v>65.78339174309173</v>
       </c>
       <c r="E7" t="n">
-        <v>199.6080350923946</v>
+        <v>65.78339174309173</v>
       </c>
       <c r="F7" t="n">
         <v>52.71808759448422</v>
@@ -4747,28 +4747,28 @@
         <v>1047.751684421857</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421857</v>
+        <v>917.0295025661735</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421857</v>
+        <v>917.0295025661735</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421857</v>
+        <v>691.3770985048444</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.751684421857</v>
+        <v>691.3770985048444</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.751684421857</v>
+        <v>436.6926102989576</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.751684421857</v>
+        <v>436.6926102989576</v>
       </c>
       <c r="X7" t="n">
-        <v>848.22241584527</v>
+        <v>436.6926102989576</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.22241584527</v>
+        <v>215.9000311554275</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2431.724328120451</v>
+        <v>1340.498291912144</v>
       </c>
       <c r="C8" t="n">
-        <v>2062.761811180039</v>
+        <v>1340.498291912144</v>
       </c>
       <c r="D8" t="n">
-        <v>1704.496112573288</v>
+        <v>982.2325933053937</v>
       </c>
       <c r="E8" t="n">
-        <v>1318.707859975044</v>
+        <v>596.4443407071494</v>
       </c>
       <c r="F8" t="n">
-        <v>907.7219551854364</v>
+        <v>589.498839957946</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6341734218639</v>
+        <v>172.4110581943734</v>
       </c>
       <c r="H8" t="n">
         <v>172.4110581943734</v>
@@ -4802,25 +4802,25 @@
         <v>52.71808759448422</v>
       </c>
       <c r="J8" t="n">
-        <v>76.93817085930385</v>
+        <v>241.3579866082206</v>
       </c>
       <c r="K8" t="n">
-        <v>480.4052838793493</v>
+        <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>1033.218542125549</v>
+        <v>1187.429107161107</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.917954950956</v>
+        <v>1374.128519986515</v>
       </c>
       <c r="N8" t="n">
-        <v>1414.252167842938</v>
+        <v>2001.436188046362</v>
       </c>
       <c r="O8" t="n">
-        <v>1961.413372610016</v>
+        <v>2171.605213363321</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.72841894931</v>
+        <v>2600.920259702616</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.904379724211</v>
@@ -4832,22 +4832,22 @@
         <v>2479.689342221039</v>
       </c>
       <c r="T8" t="n">
-        <v>2479.689342221039</v>
+        <v>2264.88948048875</v>
       </c>
       <c r="U8" t="n">
-        <v>2479.689342221039</v>
+        <v>2264.88948048875</v>
       </c>
       <c r="V8" t="n">
-        <v>2479.689342221039</v>
+        <v>2264.88948048875</v>
       </c>
       <c r="W8" t="n">
-        <v>2479.689342221039</v>
+        <v>1912.120825218636</v>
       </c>
       <c r="X8" t="n">
-        <v>2479.689342221039</v>
+        <v>1730.637623887956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2479.689342221039</v>
+        <v>1340.498291912144</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>336.9803201001412</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5389224593632</v>
+        <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416774</v>
+        <v>98.62294460416773</v>
       </c>
       <c r="I9" t="n">
         <v>52.71808759448422</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3773394513799</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571898</v>
+        <v>382.1464919002941</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.167283623308</v>
+        <v>519.3760899159881</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.664619977913</v>
+        <v>1159.921439383093</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.945911741486</v>
+        <v>1812.307773364835</v>
       </c>
       <c r="O9" t="n">
         <v>1980.381920494209</v>
@@ -4984,25 +4984,25 @@
         <v>1052.652769053829</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1748077732316</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.652769053829</v>
+        <v>822.4489425249667</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.652769053829</v>
+        <v>596.8197458373317</v>
       </c>
       <c r="U10" t="n">
-        <v>1045.601875878879</v>
+        <v>596.8197458373317</v>
       </c>
       <c r="V10" t="n">
-        <v>790.9173876729923</v>
+        <v>342.1352576314448</v>
       </c>
       <c r="W10" t="n">
-        <v>501.5002176360317</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="X10" t="n">
-        <v>273.5106667380143</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="Y10" t="n">
         <v>52.71808759448422</v>
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703092</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703092</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277355</v>
+        <v>545.3854261579735</v>
       </c>
       <c r="E13" t="n">
-        <v>363.7369613277355</v>
+        <v>397.4723325755804</v>
       </c>
       <c r="F13" t="n">
-        <v>363.7369613277355</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>580.8993044876671</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>411.9631215597602</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>261.8464821474245</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650314</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2333.297989183966</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2333.297989183966</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.222762528164</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.538274322277</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.121104285317</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>762.5477693179068</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,13 +5589,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687896</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L18" t="n">
         <v>904.4616873845483</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206043</v>
+        <v>762.5477693179072</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>593.6115863900003</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>443.4949469776645</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>295.5818533952714</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782941</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179773</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1736.301932037222</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V19" t="n">
-        <v>1481.617443831335</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W19" t="n">
-        <v>1192.200273794374</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.200273794374</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508441</v>
+        <v>762.5477693179072</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5741,13 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5768,13 +5768,13 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E22" t="n">
         <v>484.8112968429802</v>
@@ -5902,10 +5902,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>451.6888124356586</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,31 +6221,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,7 +6257,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,7 +6710,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400694</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121625</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121625</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121625</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121625</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138393</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703091</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075809</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>321.1916896023779</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>101.3321522313014</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026546833</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>58.85246329940489</v>
       </c>
       <c r="O3" t="n">
-        <v>316.338863875846</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>139.9284653494558</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>160.3336253225643</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,16 +8295,16 @@
         <v>6.839178026546833</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>293.3168899025755</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>192.665977482468</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>459.9808678792267</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.015993203471041</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>407.3488400925133</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>458.3127195243206</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>8.648317636983478</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,13 +23422,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>66.36248435538829</v>
       </c>
       <c r="G13" t="n">
-        <v>119.8635921600924</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610424</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,10 +23701,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>68.49784254931346</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.405450327287</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>85.96822242532858</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>47.43691740069056</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405073</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472369</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761409</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604371</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685109</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.1260136526042</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194402</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404994</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333086</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596176</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049979</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="L2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="M2" t="n">
+        <v>565002.6197830049</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="M2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="O2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26372,25 +26372,25 @@
         <v>2553.74144847562</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329923</v>
+        <v>775624.2722329922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821402</v>
+        <v>172417.1413821403</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.370099883548738e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695077</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.48053169503</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695031</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.48053169503</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695037</v>
+        <v>6287.480531695001</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695028</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695054</v>
+        <v>6287.48053169503</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695104</v>
+        <v>6287.480531695031</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695055</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695064</v>
+        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>86566.12012538439</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.12555917783</v>
+        <v>86631.12555917782</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-486119.1548835217</v>
+        <v>-486119.1548835216</v>
       </c>
       <c r="C6" t="n">
-        <v>303726.7782387175</v>
+        <v>303726.7782387182</v>
       </c>
       <c r="D6" t="n">
-        <v>301611.7864313426</v>
+        <v>301611.7864313428</v>
       </c>
       <c r="E6" t="n">
-        <v>-318031.6628055899</v>
+        <v>-318066.4007310255</v>
       </c>
       <c r="F6" t="n">
-        <v>457592.6094274021</v>
+        <v>457557.8715019666</v>
       </c>
       <c r="G6" t="n">
-        <v>457592.6094274022</v>
+        <v>457557.8715019665</v>
       </c>
       <c r="H6" t="n">
-        <v>457592.6094274022</v>
+        <v>457557.8715019667</v>
       </c>
       <c r="I6" t="n">
-        <v>457592.6094274022</v>
+        <v>457557.8715019667</v>
       </c>
       <c r="J6" t="n">
-        <v>285175.468045262</v>
+        <v>285140.7301198266</v>
       </c>
       <c r="K6" t="n">
-        <v>457592.6094274023</v>
+        <v>457557.8715019668</v>
       </c>
       <c r="L6" t="n">
-        <v>457592.6094274024</v>
+        <v>457557.8715019668</v>
       </c>
       <c r="M6" t="n">
-        <v>329568.4919610156</v>
+        <v>329533.7540355803</v>
       </c>
       <c r="N6" t="n">
-        <v>457592.6094274022</v>
+        <v>457557.8715019667</v>
       </c>
       <c r="O6" t="n">
-        <v>457592.6094274022</v>
+        <v>457557.8715019668</v>
       </c>
       <c r="P6" t="n">
-        <v>457592.6094274022</v>
+        <v>457557.8715019667</v>
       </c>
     </row>
   </sheetData>
@@ -26793,19 +26793,19 @@
         <v>658.9760949310527</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26972,10 +26972,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685957</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685956</v>
+        <v>513.7321931685957</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685957</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>328.1087189899119</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.958190538687</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723319</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>17.41123676393909</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>152.75990484659</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>32.32325677126134</v>
+        <v>123.4282648842212</v>
       </c>
       <c r="J4" t="n">
         <v>18.07600977063312</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371268</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937733</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>266.6594424910547</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14.00547369520046</v>
+        <v>118.958190538687</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011784</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>366.3322730862836</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>132.4863969158098</v>
       </c>
       <c r="G7" t="n">
         <v>166.9261537524327</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371268</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.4595917937733</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207158</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>28.17567949821591</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>335.2484777038978</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>190.0627313610958</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>106.6372753043364</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.2802704148967</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-3.220922302743453e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30666,7 +30666,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>456.3459017226598</v>
+        <v>303.4024373464759</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
@@ -32558,7 +32558,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982891</v>
+        <v>560.1612034965806</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,34 +32783,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>162.5000833330452</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,25 +34699,25 @@
         <v>20.43130987428259</v>
       </c>
       <c r="K2" t="n">
-        <v>403.0639553645049</v>
+        <v>406.0176783332917</v>
       </c>
       <c r="L2" t="n">
-        <v>138.8442922460942</v>
+        <v>556.5055067965446</v>
       </c>
       <c r="M2" t="n">
-        <v>186.4803583064361</v>
+        <v>635.9938917992686</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789023</v>
+        <v>295.4903701982196</v>
       </c>
       <c r="O2" t="n">
         <v>550.6683199540352</v>
       </c>
       <c r="P2" t="n">
-        <v>431.9277386890869</v>
+        <v>110.1290305176042</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.3579661459774</v>
+        <v>34.04297548607272</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>119.251857313862</v>
       </c>
       <c r="K3" t="n">
         <v>331.7202598358749</v>
@@ -34784,19 +34784,19 @@
         <v>508.0634688859699</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673912</v>
+        <v>179.6853049173913</v>
       </c>
       <c r="N3" t="n">
-        <v>198.995227051826</v>
+        <v>257.8476903512309</v>
       </c>
       <c r="O3" t="n">
-        <v>475.9363821806045</v>
+        <v>553.459837581488</v>
       </c>
       <c r="P3" t="n">
         <v>427.025497704579</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.14787863307455</v>
+        <v>232.2251663689237</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428259</v>
+        <v>189.5279250463564</v>
       </c>
       <c r="K5" t="n">
-        <v>406.0176783332917</v>
+        <v>221.8007311115827</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965446</v>
+        <v>138.8442922460942</v>
       </c>
       <c r="M5" t="n">
         <v>635.9938917992686</v>
@@ -34948,13 +34948,13 @@
         <v>194.1582179669181</v>
       </c>
       <c r="O5" t="n">
-        <v>330.2017640138541</v>
+        <v>550.6683199540352</v>
       </c>
       <c r="P5" t="n">
         <v>431.9277386890869</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607272</v>
+        <v>246.3579661459774</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358749</v>
+        <v>67.25502282329629</v>
       </c>
       <c r="L6" t="n">
-        <v>430.5400134850862</v>
+        <v>508.0634688859699</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673912</v>
+        <v>372.3512823998593</v>
       </c>
       <c r="N6" t="n">
-        <v>198.995227051826</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="O6" t="n">
         <v>553.459837581488</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>24.46473057052488</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>548.0848560937792</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>169.7718657872468</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>318.5044627483008</v>
+        <v>165.560998372117</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295172</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36136,13 +36136,13 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,7 +36206,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>302.0934576762708</v>
+        <v>418.0271695745623</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790075</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>23.94570355317107</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998967</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
